--- a/cropped_and_labeled_image_data/2009_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2009_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,709 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Barton &amp; Sutcliffe_2009_HR_Overcoming dysfunctional mometum - organizational safety as a social achievement.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F1_P21_Barton &amp; Sutcliffe_2009_HR_Overcoming dysfunctional mometum - organizational safety as a social achievement.png</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P21_Barton &amp; Sutcliffe_2009_HR_Overcoming dysfunctional mometum - organizational safety as a social achievement.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bezrukova et al._2009_OrgSci_Do Workgroup Faultlines Help or Hurt.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F2_P10_Bezrukova et al._2009_OrgSci_Do Workgroup Faultlines Help or Hurt.png</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F2_P10_Bezrukova et al._2009_OrgSci_Do Workgroup Faultlines Help or Hurt.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bunderson &amp; Thompson_2009_ASQ_The Call of the Wild.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F1_P18_Bunderson &amp; Thompson_2009_ASQ_The Call of the Wild.png</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P18_Bunderson &amp; Thompson_2009_ASQ_The Call of the Wild.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>hierarchical diagram</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Elsbach_2009_HR_Identity affirmation through signature style - a study of toy car designers.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1_P13_Elsbach_2009_HR_Identity affirmation through signature style - a study of toy car designers.png</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P13_Elsbach_2009_HR_Identity affirmation through signature style - a study of toy car designers.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gordon, Clegg &amp; Kornberger_2009_OrgStudies_Embedded Ethics - Discourse and Power in the New south Wales Police Service.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F1_P7_Gordon, Clegg &amp; Kornberger_2009_OrgStudies_Embedded Ethics - Discourse and Power in the New south Wales Police Service.png</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P7_Gordon, Clegg &amp; Kornberger_2009_OrgStudies_Embedded Ethics - Discourse and Power in the New south Wales Police Service.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F2_P2_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F2_P2_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>organizational chart</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F3_P6_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F3_P6_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F4_P7_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F4_P7_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F5_P8_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F5_P8_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F6_P8_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F6_P8_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F7_P9_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F7_P9_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F8_P9_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F8_P9_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F8_P10_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F8_P10_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Huault &amp; Le Montagner_2009_OrgStudies_Market Shaping as an Answer to Ambiguities - the Case of Credit Derivatives.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F1_P9_Huault &amp; Le Montagner_2009_OrgStudies_Market Shaping as an Answer to Ambiguities - the Case of Credit Derivatives.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P9_Huault &amp; Le Montagner_2009_OrgStudies_Market Shaping as an Answer to Ambiguities - the Case of Credit Derivatives.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>bar chart</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Levina &amp; Orlikowski_2009_AMJ_Understanding Shifting Power Relations within and across Organizations a Critical Genre Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F2_P25_Levina &amp; Orlikowski_2009_AMJ_Understanding Shifting Power Relations within and across Organizations a Critical Genre Analysis.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E16" t="n">
+        <v>26</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F2_P25_Levina &amp; Orlikowski_2009_AMJ_Understanding Shifting Power Relations within and across Organizations a Critical Genre Analysis.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rerup_2009_OrgSci_Attentional Triangulation.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F1_P5_Rerup_2009_OrgSci_Attentional Triangulation.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P5_Rerup_2009_OrgSci_Attentional Triangulation.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sonenshein_2009_OrgSci_Emergence of Ethical Issues During Strategic Change Implementation.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F1_P7_Sonenshein_2009_OrgSci_Emergence of Ethical Issues During Strategic Change Implementation.png</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P7_Sonenshein_2009_OrgSci_Emergence of Ethical Issues During Strategic Change Implementation.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Stephen, Fulk &amp; Monge_2009_HR_Constrained choices in alliance formations - cupids and organizational marriages.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F2_P25_Stephen, Fulk &amp; Monge_2009_HR_Constrained choices in alliance formations - cupids and organizational marriages.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E19" t="n">
+        <v>26</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F2_P25_Stephen, Fulk &amp; Monge_2009_HR_Constrained choices in alliance formations - cupids and organizational marriages.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Stephen, Fulk &amp; Monge_2009_HR_Constrained choices in alliance formations - cupids and organizational marriages.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F3_P26_Stephen, Fulk &amp; Monge_2009_HR_Constrained choices in alliance formations - cupids and organizational marriages.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E20" t="n">
+        <v>27</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F3_P26_Stephen, Fulk &amp; Monge_2009_HR_Constrained choices in alliance formations - cupids and organizational marriages.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2009_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2009_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,6 +1183,117 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Bezrukova et al._2009_OrgSci_Do Workgroup Faultlines Help or Hurt.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F1_P10_Bezrukova et al._2009_OrgSci_Do Workgroup Faultlines Help or Hurt.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P10_Bezrukova et al._2009_OrgSci_Do Workgroup Faultlines Help or Hurt.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kreiner, Hollensbe &amp; Sheep_2009_AMJ_Balancing Borders and Bridges Negotiating the Work-Home Interface Via Boundary Work Tactics.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F1_P7_Kreiner, Hollensbe &amp; Sheep_2009_AMJ_Balancing Borders and Bridges Negotiating the Work-Home Interface Via Boundary Work Tactics.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P7_Kreiner, Hollensbe &amp; Sheep_2009_AMJ_Balancing Borders and Bridges Negotiating the Work-Home Interface Via Boundary Work Tactics.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Levina &amp; Orlikowski_2009_AMJ_Understanding Shifting Power Relations within and across Organizations a Critical Genre Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F1_P10_Levina &amp; Orlikowski_2009_AMJ_Understanding Shifting Power Relations within and across Organizations a Critical Genre Analysis.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P10_Levina &amp; Orlikowski_2009_AMJ_Understanding Shifting Power Relations within and across Organizations a Critical Genre Analysis.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2009_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2009_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,9 +508,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -547,11 +539,8 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -587,9 +576,6 @@
           <t>hierarchical diagram</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -621,11 +607,8 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>process diagram</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -661,9 +644,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -698,9 +678,6 @@
           <t>organizational chart</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -735,9 +712,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -769,11 +743,8 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -806,11 +777,8 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -843,11 +811,8 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -880,11 +845,8 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -917,11 +879,8 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -954,11 +913,8 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -991,11 +947,8 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>bar chart</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
+          <t>bar chart(s)</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1031,9 +984,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1068,9 +1018,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1105,9 +1052,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1142,9 +1086,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1179,9 +1120,6 @@
           <t>other</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1213,11 +1151,8 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1253,9 +1188,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1289,9 +1221,6 @@
         <is>
           <t>conceptual diagram</t>
         </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
